--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl12-Ccr3.xlsx
@@ -540,10 +540,10 @@
         <v>0.846464</v>
       </c>
       <c r="I2">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J2">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N2">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P2">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q2">
-        <v>0.07974838308977779</v>
+        <v>0.02528942872177778</v>
       </c>
       <c r="R2">
-        <v>0.717735447808</v>
+        <v>0.227604858496</v>
       </c>
       <c r="S2">
-        <v>0.00150995119797534</v>
+        <v>0.002483645667926139</v>
       </c>
       <c r="T2">
-        <v>0.001509951197975339</v>
+        <v>0.002483645667926139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.846464</v>
       </c>
       <c r="I3">
-        <v>0.003251136722938652</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="J3">
-        <v>0.003251136722938651</v>
+        <v>0.005723000769734084</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N3">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O3">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P3">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q3">
-        <v>0.09196107163022221</v>
+        <v>0.03298435079111111</v>
       </c>
       <c r="R3">
-        <v>0.827649644672</v>
+        <v>0.29685915712</v>
       </c>
       <c r="S3">
-        <v>0.001741185524963312</v>
+        <v>0.003239355101807946</v>
       </c>
       <c r="T3">
-        <v>0.001741185524963312</v>
+        <v>0.003239355101807946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H4">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I4">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J4">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N4">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P4">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q4">
-        <v>15.81922956528245</v>
+        <v>2.706759018495</v>
       </c>
       <c r="R4">
-        <v>142.373066087542</v>
+        <v>24.360831166455</v>
       </c>
       <c r="S4">
-        <v>0.2995203627671656</v>
+        <v>0.265827685724509</v>
       </c>
       <c r="T4">
-        <v>0.2995203627671655</v>
+        <v>0.265827685724509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.96940366666666</v>
+        <v>30.199365</v>
       </c>
       <c r="H5">
-        <v>167.908211</v>
+        <v>90.598095</v>
       </c>
       <c r="I5">
-        <v>0.6449093533393406</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="J5">
-        <v>0.6449093533393405</v>
+        <v>0.6125398923302606</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N5">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O5">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P5">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q5">
-        <v>18.24179057712255</v>
+        <v>3.530356100775</v>
       </c>
       <c r="R5">
-        <v>164.176115194103</v>
+        <v>31.773204906975</v>
       </c>
       <c r="S5">
-        <v>0.345388990572175</v>
+        <v>0.3467122066057516</v>
       </c>
       <c r="T5">
-        <v>0.345388990572175</v>
+        <v>0.3467122066057516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H6">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I6">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J6">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2826406666666667</v>
+        <v>0.08962966666666666</v>
       </c>
       <c r="N6">
-        <v>0.8479220000000001</v>
+        <v>0.268889</v>
       </c>
       <c r="O6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="P6">
-        <v>0.4644379263787216</v>
+        <v>0.4339761198462219</v>
       </c>
       <c r="Q6">
-        <v>8.630406659511779</v>
+        <v>1.686862145198333</v>
       </c>
       <c r="R6">
-        <v>77.67365993560601</v>
+        <v>15.181759306785</v>
       </c>
       <c r="S6">
-        <v>0.1634076124135806</v>
+        <v>0.1656647884537867</v>
       </c>
       <c r="T6">
-        <v>0.1634076124135806</v>
+        <v>0.1656647884537867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.53490766666667</v>
+        <v>18.820355</v>
       </c>
       <c r="H7">
-        <v>91.60472300000001</v>
+        <v>56.461065</v>
       </c>
       <c r="I7">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="J7">
-        <v>0.3518395099377208</v>
+        <v>0.3817371069000054</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3259243333333333</v>
+        <v>0.1169016666666667</v>
       </c>
       <c r="N7">
-        <v>0.977773</v>
+        <v>0.350705</v>
       </c>
       <c r="O7">
-        <v>0.5355620736212784</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="P7">
-        <v>0.5355620736212785</v>
+        <v>0.5660238801537781</v>
       </c>
       <c r="Q7">
-        <v>9.952069424653223</v>
+        <v>2.200130866758333</v>
       </c>
       <c r="R7">
-        <v>89.56862482187901</v>
+        <v>19.801177800825</v>
       </c>
       <c r="S7">
-        <v>0.1884318975241402</v>
+        <v>0.2160723184462187</v>
       </c>
       <c r="T7">
-        <v>0.1884318975241402</v>
+        <v>0.2160723184462187</v>
       </c>
     </row>
   </sheetData>
